--- a/docs/OEA_Cost_Estimation.xlsx
+++ b/docs/OEA_Cost_Estimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OpenEduAnalytics\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F5B288-8A80-44E5-A653-62064F67F08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCE0114-9237-4E81-97D1-6757EA0D5E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51840" yWindow="1425" windowWidth="21600" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52410" yWindow="615" windowWidth="21600" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost" sheetId="5" r:id="rId1"/>
@@ -329,6 +329,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -338,12 +341,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -634,7 +634,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -669,37 +669,37 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="L3" s="8" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="L3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="10"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -720,22 +720,22 @@
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -959,43 +959,43 @@
       <c r="T8" s="2"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="314" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:22" ht="110.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="15"/>
